--- a/mixs-templates/MimarksC_plus_combinations/MimarksCFoodFarmEnvironment.xlsx
+++ b/mixs-templates/MimarksC_plus_combinations/MimarksCFoodFarmEnvironment.xlsx
@@ -1259,7 +1259,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
@@ -1277,6 +1277,9 @@
     </dataValidation>
     <dataValidation sqref="CH2:CH1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"chisel,cutting disc,disc plough,drill,mouldboard,ridge till,strip tillage,tined,zonal tillage"</formula1>
+    </dataValidation>
+    <dataValidation sqref="CK2:CK1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="CN2:CN1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
